--- a/納品/1-2.計画立案_反復計画書.xlsx
+++ b/納品/1-2.計画立案_反復計画書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34760ED-6AC9-4BF2-9917-0F086D2F2C65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B56F00-3438-442B-AEAD-7C7EC590510C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="180" windowWidth="15200" windowHeight="9800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20925" yWindow="300" windowWidth="18795" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>反復１</t>
     <rPh sb="0" eb="2">
@@ -413,6 +413,39 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日間</t>
+    <rPh sb="1" eb="3">
+      <t>ニチカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5日間</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終日はswing班とDB班に分かれた。</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -752,7 +785,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -772,19 +805,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -796,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,13 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -923,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1294,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1"/>
@@ -1289,21 +1303,21 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1447,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,7 +1475,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1472,7 +1486,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1481,7 +1495,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1490,7 +1504,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1587,13 +1601,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="36" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1604,11 +1618,15 @@
       <c r="B12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>43984</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="D12" s="37">
+        <v>43992</v>
+      </c>
+      <c r="E12" s="37">
+        <v>43994</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -1618,8 +1636,12 @@
       <c r="C13" s="32">
         <v>43991</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="32">
+        <v>43994</v>
+      </c>
+      <c r="E13" s="37">
+        <v>43997</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
@@ -1629,8 +1651,12 @@
       <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="201" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
@@ -1640,8 +1666,12 @@
       <c r="C15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -1651,7 +1681,9 @@
       <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="17"/>
     </row>
   </sheetData>
@@ -1673,6 +1705,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1842,15 +1883,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
@@ -1861,6 +1893,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2404E3D6-C5E8-4A32-932E-E10A1ED3B4C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1876,12 +1916,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>